--- a/25th June Batch/Class 29.01.2023 - Z Test.xlsx
+++ b/25th June Batch/Class 29.01.2023 - Z Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th June Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD380F7-7004-4A07-BF0E-9A3D6CCADB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72C0754-7C8E-4775-8347-294D4C83C1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,12 +233,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,7 +524,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,19 +606,19 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="4"/>
       <c r="K4" s="2" t="s">
         <v>31</v>
@@ -657,7 +657,7 @@
       <c r="K5" s="4">
         <v>0.05</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -706,7 +706,7 @@
       <c r="C7" s="4">
         <v>31</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="4"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
